--- a/Data/Datas/M_门派/门派.xlsx
+++ b/Data/Datas/M_门派/门派.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="274">
   <si>
     <t>##var</t>
   </si>
@@ -238,7 +238,7 @@
     <t>AI行为模块</t>
   </si>
   <si>
-    <t>#</t>
+    <t>##</t>
   </si>
   <si>
     <t>圣剑门</t>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>方证</t>
+  </si>
+  <si>
+    <t>随机坦克,随机医师,随机刺客,随机侠士</t>
   </si>
   <si>
     <t>武当派</t>
@@ -1757,7 +1760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1774,9 +1777,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1798,9 +1798,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2196,11 +2193,11 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21:L40"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39" customHeight="1"/>
@@ -2210,1618 +2207,1618 @@
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="36.5" customWidth="1"/>
-    <col min="8" max="8" width="45.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="45.5" style="6" customWidth="1"/>
     <col min="9" max="9" width="41.25" customWidth="1"/>
     <col min="10" max="10" width="54.625" customWidth="1"/>
     <col min="11" max="11" width="38.375" style="6" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="53.875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="66.25" style="8" customWidth="1"/>
-    <col min="15" max="15" width="34" style="9" customWidth="1"/>
+    <col min="13" max="13" width="53.875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="66.25" style="7" customWidth="1"/>
+    <col min="15" max="15" width="34" style="8" customWidth="1"/>
     <col min="16" max="16" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:16">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:16">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="21" customHeight="1" spans="1:16">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>3</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>4</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>5</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>6</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="21" t="s">
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="21" t="s">
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>9</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>10</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="21" t="s">
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>11</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="21" t="s">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>12</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>13</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="21" t="s">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>14</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>30</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="19" t="s">
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P17" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>15</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <v>8</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23" t="s">
+      <c r="M18" s="21"/>
+      <c r="N18" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>16</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="J19" s="15" t="s">
+      <c r="H19" s="14"/>
+      <c r="J19" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="14">
         <v>0</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" customHeight="1" spans="2:15">
-      <c r="B20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="K20" s="16"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
+      <c r="B20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" ht="14.25" spans="2:16">
       <c r="B21" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="J21" s="28" t="s">
-        <v>84</v>
+      <c r="J21" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K21" s="6">
         <v>20</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="O21" s="29" t="s">
+      <c r="O21" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:16">
       <c r="B22" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="16">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="26" t="s">
         <v>209</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="18">
-        <v>2</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="K22" s="6">
         <v>20</v>
       </c>
-      <c r="L22" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="O22" s="29" t="s">
+      <c r="L22" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="2:16">
       <c r="B23" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="18">
+        <v>213</v>
+      </c>
+      <c r="E23" s="16">
         <v>3</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="28" t="s">
+      <c r="H23" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J23" s="28" t="s">
-        <v>84</v>
+      <c r="I23" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K23" s="6">
         <v>5</v>
       </c>
-      <c r="L23" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="O23" s="29" t="s">
+      <c r="L23" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O23" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P23" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="2:16">
       <c r="B24" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="18">
+        <v>216</v>
+      </c>
+      <c r="E24" s="16">
         <v>4</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I24" s="28" t="s">
+      <c r="H24" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J24" s="28" t="s">
-        <v>84</v>
+      <c r="I24" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K24" s="6">
         <v>30</v>
       </c>
-      <c r="L24" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="O24" s="29" t="s">
+      <c r="L24" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="P24" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="2:16">
       <c r="B25" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="18">
+        <v>219</v>
+      </c>
+      <c r="E25" s="16">
         <v>5</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I25" s="28" t="s">
+      <c r="H25" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="J25" s="28" t="s">
-        <v>84</v>
+      <c r="I25" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K25" s="6">
         <v>10</v>
       </c>
-      <c r="L25" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="O25" s="29" t="s">
+      <c r="L25" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="2:16">
       <c r="B26" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="18">
+        <v>222</v>
+      </c>
+      <c r="E26" s="16">
         <v>6</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I26" s="28" t="s">
+      <c r="H26" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="J26" s="28" t="s">
-        <v>84</v>
+      <c r="I26" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K26" s="6">
         <v>10</v>
       </c>
-      <c r="L26" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="O26" s="29" t="s">
+      <c r="L26" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="O26" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="P26" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="2:16">
       <c r="B27" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E27" s="18">
+        <v>224</v>
+      </c>
+      <c r="E27" s="16">
         <v>7</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="I27" s="28" t="s">
+      <c r="H27" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="J27" s="28" t="s">
-        <v>84</v>
+      <c r="I27" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K27" s="6">
         <v>10</v>
       </c>
-      <c r="L27" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="O27" s="29" t="s">
+      <c r="L27" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="P27" s="18" t="s">
+      <c r="P27" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="2:16">
       <c r="B28" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="18">
+        <v>227</v>
+      </c>
+      <c r="E28" s="16">
         <v>8</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="I28" s="28" t="s">
+      <c r="H28" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="J28" s="28" t="s">
-        <v>84</v>
+      <c r="I28" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K28" s="6">
         <v>40</v>
       </c>
-      <c r="L28" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="O28" s="29" t="s">
+      <c r="L28" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="O28" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="2:16">
       <c r="B29" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>135</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="18">
+        <v>230</v>
+      </c>
+      <c r="E29" s="16">
         <v>9</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I29" s="28" t="s">
+      <c r="H29" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="J29" s="28" t="s">
-        <v>84</v>
+      <c r="I29" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K29" s="6">
         <v>15</v>
       </c>
-      <c r="L29" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="O29" s="29" t="s">
+      <c r="L29" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O29" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="2:16">
       <c r="B30" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" s="18">
+        <v>233</v>
+      </c>
+      <c r="E30" s="16">
         <v>10</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I30" s="28" t="s">
+      <c r="H30" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="J30" s="28" t="s">
-        <v>84</v>
+      <c r="I30" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K30" s="6">
         <v>10</v>
       </c>
-      <c r="L30" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="O30" s="29" t="s">
+      <c r="L30" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="2:16">
       <c r="B31" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>152</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="18">
+        <v>236</v>
+      </c>
+      <c r="E31" s="16">
         <v>11</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I31" s="28" t="s">
+      <c r="H31" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="J31" s="28" t="s">
-        <v>84</v>
+      <c r="I31" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K31" s="6">
         <v>40</v>
       </c>
-      <c r="L31" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="O31" s="29" t="s">
+      <c r="L31" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="2:16">
       <c r="B32" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>162</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="18">
+        <v>239</v>
+      </c>
+      <c r="E32" s="16">
         <v>12</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I32" s="28" t="s">
+      <c r="H32" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="J32" s="28" t="s">
-        <v>84</v>
+      <c r="I32" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K32" s="6">
         <v>20</v>
       </c>
-      <c r="L32" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="O32" s="29" t="s">
+      <c r="L32" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O32" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="2:16">
       <c r="B33" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>174</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="18">
+        <v>242</v>
+      </c>
+      <c r="E33" s="16">
         <v>13</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="I33" s="28" t="s">
+      <c r="H33" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="J33" s="28" t="s">
-        <v>84</v>
+      <c r="I33" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K33" s="6">
         <v>15</v>
       </c>
-      <c r="L33" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="O33" s="29" t="s">
+      <c r="L33" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="O33" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="P33" s="18" t="s">
+      <c r="P33" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:16">
       <c r="B34" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>184</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E34" s="7">
+        <v>245</v>
+      </c>
+      <c r="E34" s="6">
         <v>14</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I34" s="28" t="s">
+      <c r="H34" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J34" s="28" t="s">
-        <v>84</v>
+      <c r="I34" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K34" s="6">
         <v>12</v>
       </c>
-      <c r="L34" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="O34" s="9" t="s">
+      <c r="L34" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O34" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="P34" s="18" t="s">
+      <c r="P34" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="2:16">
       <c r="B35" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C35" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E35" s="7">
+        <v>248</v>
+      </c>
+      <c r="E35" s="6">
         <v>15</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I35" s="28" t="s">
+      <c r="H35" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="J35" s="28" t="s">
-        <v>84</v>
+      <c r="I35" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K35" s="6">
         <v>20</v>
       </c>
-      <c r="L35" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="O35" s="9" t="s">
+      <c r="L35" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="O35" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="P35" s="18" t="s">
+      <c r="P35" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="2:16">
       <c r="B36" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>198</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E36" s="18">
+        <v>251</v>
+      </c>
+      <c r="E36" s="16">
         <v>16</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I36" s="28" t="s">
+      <c r="H36" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="J36" s="28" t="s">
-        <v>84</v>
+      <c r="I36" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K36" s="6">
         <v>15</v>
       </c>
-      <c r="L36" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="O36" s="30" t="s">
+      <c r="L36" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="O36" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="P36" s="18" t="s">
+      <c r="P36" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="2:16">
       <c r="B37" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" s="18" t="s">
         <v>254</v>
       </c>
+      <c r="C37" s="16" t="s">
+        <v>255</v>
+      </c>
       <c r="D37" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I37" s="28" t="s">
+      <c r="H37" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="J37" s="28" t="s">
-        <v>84</v>
+      <c r="I37" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K37" s="6">
         <v>40</v>
       </c>
-      <c r="L37" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="O37" s="9" t="s">
+      <c r="L37" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="P37" s="18" t="s">
+      <c r="O37" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="P37" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="2:16">
       <c r="B38" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C38" s="18" t="s">
         <v>259</v>
       </c>
+      <c r="C38" s="16" t="s">
+        <v>260</v>
+      </c>
       <c r="D38" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E38" s="6">
         <v>2</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I38" s="28" t="s">
+      <c r="H38" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="J38" s="28" t="s">
-        <v>84</v>
+      <c r="I38" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K38" s="6">
         <v>25</v>
       </c>
-      <c r="L38" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="O38" s="9" t="s">
+      <c r="L38" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="P38" s="18" t="s">
+      <c r="O38" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P38" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="2:16">
       <c r="B39" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C39" s="18" t="s">
         <v>264</v>
       </c>
+      <c r="C39" s="16" t="s">
+        <v>265</v>
+      </c>
       <c r="D39" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I39" s="28" t="s">
+      <c r="H39" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="J39" s="28" t="s">
-        <v>84</v>
+      <c r="I39" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K39" s="6">
         <v>5</v>
       </c>
-      <c r="L39" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="O39" s="9" t="s">
+      <c r="L39" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="P39" s="18" t="s">
+      <c r="O39" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="P39" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="2:16">
       <c r="B40" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" s="18" t="s">
         <v>269</v>
       </c>
+      <c r="C40" s="16" t="s">
+        <v>270</v>
+      </c>
       <c r="D40" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E40" s="6">
         <v>4</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>270</v>
+      <c r="H40" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="J40" s="28" t="s">
-        <v>84</v>
+        <v>272</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="K40" s="6">
         <v>0</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="O40" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="P40" s="18" t="s">
+      <c r="O40" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="P40" s="16" t="s">
         <v>90</v>
       </c>
     </row>

--- a/Data/Datas/M_门派/门派.xlsx
+++ b/Data/Datas/M_门派/门派.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="284">
   <si>
     <t>##var</t>
   </si>
@@ -937,6 +937,15 @@
     <t>随机坦克,随机医师,随机刺客,随机侠士</t>
   </si>
   <si>
+    <t>日月神教,敌对</t>
+  </si>
+  <si>
+    <t>日月神教,-100;武当派,50</t>
+  </si>
+  <si>
+    <t>AI/Menpai/jy_menpai_ai</t>
+  </si>
+  <si>
     <t>武当派</t>
   </si>
   <si>
@@ -946,6 +955,9 @@
     <t>张三丰</t>
   </si>
   <si>
+    <t>日月神教,-100;少林,50</t>
+  </si>
+  <si>
     <t>华山派</t>
   </si>
   <si>
@@ -997,6 +1009,12 @@
     <t>东方不败</t>
   </si>
   <si>
+    <t>少林,敌对;武当派,敌对;华山派,敌对</t>
+  </si>
+  <si>
+    <t>少林,-100;武当,-100;华山派,-100</t>
+  </si>
+  <si>
     <t>南少林</t>
   </si>
   <si>
@@ -1006,6 +1024,12 @@
     <t>洪大猛</t>
   </si>
   <si>
+    <t>河洛帮,敌对</t>
+  </si>
+  <si>
+    <t>0.39,0.12,0.65,1.0</t>
+  </si>
+  <si>
     <t>神龙教</t>
   </si>
   <si>
@@ -1022,6 +1046,12 @@
   </si>
   <si>
     <t>徐小侠</t>
+  </si>
+  <si>
+    <t>南少林,敌对</t>
+  </si>
+  <si>
+    <t>南少林,-100</t>
   </si>
   <si>
     <t>海鲨帮</t>
@@ -2193,11 +2223,11 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39" customHeight="1"/>
@@ -3150,31 +3180,37 @@
       <c r="L21" s="26" t="s">
         <v>208</v>
       </c>
+      <c r="M21" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="O21" s="27" t="s">
         <v>50</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:16">
       <c r="B22" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E22" s="16">
         <v>2</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J22" s="26" t="s">
         <v>209</v>
@@ -3183,33 +3219,39 @@
         <v>20</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="O22" s="27" t="s">
         <v>63</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="2:16">
       <c r="B23" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E23" s="16">
         <v>3</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J23" s="26" t="s">
         <v>209</v>
@@ -3218,33 +3260,36 @@
         <v>5</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="O23" s="27" t="s">
         <v>76</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="2:16">
       <c r="B24" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E24" s="16">
         <v>4</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>209</v>
@@ -3253,33 +3298,33 @@
         <v>30</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O24" s="27" t="s">
         <v>89</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="2:16">
       <c r="B25" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E25" s="16">
         <v>5</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J25" s="26" t="s">
         <v>209</v>
@@ -3288,33 +3333,33 @@
         <v>10</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O25" s="27" t="s">
         <v>101</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="2:16">
       <c r="B26" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E26" s="16">
         <v>6</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J26" s="26" t="s">
         <v>209</v>
@@ -3323,33 +3368,33 @@
         <v>10</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O26" s="27" t="s">
         <v>112</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="2:16">
       <c r="B27" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E27" s="16">
         <v>7</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J27" s="26" t="s">
         <v>209</v>
@@ -3358,33 +3403,33 @@
         <v>10</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O27" s="27" t="s">
         <v>123</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="2:16">
       <c r="B28" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E28" s="16">
         <v>8</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J28" s="26" t="s">
         <v>209</v>
@@ -3393,33 +3438,39 @@
         <v>40</v>
       </c>
       <c r="L28" s="26" t="s">
-        <v>229</v>
+        <v>233</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="O28" s="27" t="s">
         <v>132</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="2:16">
       <c r="B29" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>135</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E29" s="16">
         <v>9</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J29" s="26" t="s">
         <v>209</v>
@@ -3428,33 +3479,36 @@
         <v>15</v>
       </c>
       <c r="L29" s="26" t="s">
-        <v>232</v>
+        <v>238</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="2:16">
       <c r="B30" s="6" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E30" s="16">
         <v>10</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>209</v>
@@ -3463,33 +3517,33 @@
         <v>10</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="O30" s="27" t="s">
         <v>149</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="2:16">
       <c r="B31" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>152</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E31" s="16">
         <v>11</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="J31" s="26" t="s">
         <v>209</v>
@@ -3498,33 +3552,39 @@
         <v>40</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>238</v>
+        <v>246</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="O31" s="27" t="s">
         <v>159</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="2:16">
       <c r="B32" s="6" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>162</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E32" s="16">
         <v>12</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>209</v>
@@ -3533,33 +3593,33 @@
         <v>20</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="O32" s="27" t="s">
         <v>171</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="2:16">
       <c r="B33" s="6" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>174</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E33" s="16">
         <v>13</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="J33" s="26" t="s">
         <v>209</v>
@@ -3568,33 +3628,33 @@
         <v>15</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="O33" s="27" t="s">
         <v>181</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:16">
       <c r="B34" s="6" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>184</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E34" s="6">
         <v>14</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="J34" s="26" t="s">
         <v>209</v>
@@ -3603,33 +3663,33 @@
         <v>12</v>
       </c>
       <c r="L34" s="26" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>189</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="2:16">
       <c r="B35" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E35" s="6">
         <v>15</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="J35" s="26" t="s">
         <v>209</v>
@@ -3638,33 +3698,33 @@
         <v>20</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>196</v>
       </c>
       <c r="P35" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="2:16">
       <c r="B36" s="6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>198</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E36" s="16">
         <v>16</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="J36" s="26" t="s">
         <v>209</v>
@@ -3673,33 +3733,33 @@
         <v>15</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="O36" s="28" t="s">
         <v>204</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="2:16">
       <c r="B37" s="6" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="J37" s="26" t="s">
         <v>209</v>
@@ -3708,33 +3768,33 @@
         <v>40</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="2:16">
       <c r="B38" s="6" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E38" s="6">
         <v>2</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="J38" s="26" t="s">
         <v>209</v>
@@ -3743,33 +3803,33 @@
         <v>25</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="2:16">
       <c r="B39" s="6" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="J39" s="26" t="s">
         <v>209</v>
@@ -3778,33 +3838,33 @@
         <v>5</v>
       </c>
       <c r="L39" s="26" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="2:16">
       <c r="B40" s="6" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E40" s="6">
         <v>4</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="J40" s="26" t="s">
         <v>209</v>
@@ -3813,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="P40" s="16" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
